--- a/medicine/Sexualité et sexologie/Prostitution_de_caste/Prostitution_de_caste.xlsx
+++ b/medicine/Sexualité et sexologie/Prostitution_de_caste/Prostitution_de_caste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prostitution de caste (caste-based prostitution en anglais[1]) est la participation de certaines catégories sociales à la prostitution.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prostitution de caste (caste-based prostitution en anglais) est la participation de certaines catégories sociales à la prostitution.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme prostitution de caste[2],[3],[4] désigne le fait que les femmes de certaines castes sont traditionnellement impliquées dans la prostitution.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme prostitution de caste désigne le fait que les femmes de certaines castes sont traditionnellement impliquées dans la prostitution.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Inde, les groupes de caste inférieure associés à la prostitution comprennent les Banchhada, les Bedias[5], les Perna[6], et les Nat. On pense que ces groupes étaient souvent nomades dans le passé et se sont installés dans de petits villages qui devaient être connus sous le nom de « villages de prostituées ». Pendant la période coloniale, ces groupes étaient souvent classés dans la catégorie des « tribus criminelles » en vertu de la « Loi sur les tribus criminelles » et, à cause de la persécution qui en résultait, perdaient souvent leurs sources de revenus traditionnelles, par exemple en tant que danseurs, ce qui obligeait les femmes à adopter la prostitution[7]. Même s'ils sont maintenant appelés « tribus non répertoriées et nomades de l'Inde », ils sont encore plus communément connus dans la société traditionnelle sous le nom de « tribus criminelles »[8].
-Au Népal, le peuple Badi est connu pour être traditionnellement impliqué dans la prostitution[9],[10]. Après le 14e siècle, les Badis ont reçu des terres et de l'argent pour fournir des concubines aux petits souverains du Népal occidental. Après 1950, la royauté locale a perdu le pouvoir dans un mouvement pro-démocratie. Ainsi, les Badis ont vu leur clientèle disparaître et ils se sont finalement tournés vers la prostitution[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Inde, les groupes de caste inférieure associés à la prostitution comprennent les Banchhada, les Bedias, les Perna, et les Nat. On pense que ces groupes étaient souvent nomades dans le passé et se sont installés dans de petits villages qui devaient être connus sous le nom de « villages de prostituées ». Pendant la période coloniale, ces groupes étaient souvent classés dans la catégorie des « tribus criminelles » en vertu de la « Loi sur les tribus criminelles » et, à cause de la persécution qui en résultait, perdaient souvent leurs sources de revenus traditionnelles, par exemple en tant que danseurs, ce qui obligeait les femmes à adopter la prostitution. Même s'ils sont maintenant appelés « tribus non répertoriées et nomades de l'Inde », ils sont encore plus communément connus dans la société traditionnelle sous le nom de « tribus criminelles ».
+Au Népal, le peuple Badi est connu pour être traditionnellement impliqué dans la prostitution,. Après le 14e siècle, les Badis ont reçu des terres et de l'argent pour fournir des concubines aux petits souverains du Népal occidental. Après 1950, la royauté locale a perdu le pouvoir dans un mouvement pro-démocratie. Ainsi, les Badis ont vu leur clientèle disparaître et ils se sont finalement tournés vers la prostitution.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Fréquence et lieux de la pratique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un activiste social a émis l'hypothèse qu'en Inde, il pourrait y avoir environ 100 000 femmes et filles des castes inférieures qui travaillent dans la prostitution[12]. Cette pratique est surtout concentrée dans l'état central indien du Madhya Pradesh[13].
-Chez les Bacchara, selon Monalika Tiwari, une assistante sociale de l'organisation Jan Sahas, les hommes ne sont généralement pas censés travailler, tandis qu'au moins une fille dans la plupart des familles est tenue de se prostituer au lieu de se marier[3]. Les filles sont mariées ou initiées au commerce sexuel entre 10 et 12 ans[2], et la plupart se tournent vers le commerce sexuel avant leurs 18 ans[4]. Alors que dans le pays les garçons sont souvent préférés aux filles, les avortements sélectifs en fonction du sexe entraînant une proportion hommes/femmes déséquilibrée, la naissance des filles dans certains villages de basse caste construits autour de la prostitution est célébrée comme l'arrivée des futurs soutiens de famille. Elles sont préparées à la prostitution par leurs propres familles, souvent dès la naissance ; on rapporte que des fillettes sont cachées sous les lits pour observer les autres à l’œuvre[12]. Plus la fille est jeune, plus le prix des services sexuels est élevé[13]. Chez les Perna, les filles sont mariées après la puberté et, si elles résistent ensuite à la prostitution, elles sont souvent maltraitées physiquement par leurs beaux-parents qui attendent de la femme de leur fils qu'elle contribue aux finances de la famille[8]. Chez les Bedia, les filles sont initiées à la profession dès leur puberté[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un activiste social a émis l'hypothèse qu'en Inde, il pourrait y avoir environ 100 000 femmes et filles des castes inférieures qui travaillent dans la prostitution. Cette pratique est surtout concentrée dans l'état central indien du Madhya Pradesh.
+Chez les Bacchara, selon Monalika Tiwari, une assistante sociale de l'organisation Jan Sahas, les hommes ne sont généralement pas censés travailler, tandis qu'au moins une fille dans la plupart des familles est tenue de se prostituer au lieu de se marier. Les filles sont mariées ou initiées au commerce sexuel entre 10 et 12 ans, et la plupart se tournent vers le commerce sexuel avant leurs 18 ans. Alors que dans le pays les garçons sont souvent préférés aux filles, les avortements sélectifs en fonction du sexe entraînant une proportion hommes/femmes déséquilibrée, la naissance des filles dans certains villages de basse caste construits autour de la prostitution est célébrée comme l'arrivée des futurs soutiens de famille. Elles sont préparées à la prostitution par leurs propres familles, souvent dès la naissance ; on rapporte que des fillettes sont cachées sous les lits pour observer les autres à l’œuvre. Plus la fille est jeune, plus le prix des services sexuels est élevé. Chez les Perna, les filles sont mariées après la puberté et, si elles résistent ensuite à la prostitution, elles sont souvent maltraitées physiquement par leurs beaux-parents qui attendent de la femme de leur fils qu'elle contribue aux finances de la famille. Chez les Bedia, les filles sont initiées à la profession dès leur puberté.
 </t>
         </is>
       </c>
